--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldw\Documents\gswt\Project\tubes-probstat-2023\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF99F27-9976-45D6-ACC9-209FAD5AED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5298F2F-EBA9-43F3-8841-3D050E685F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="339">
   <si>
     <t>Jenis Kelamin</t>
   </si>
@@ -135,12 +136,6 @@
     <t>[ATM]</t>
   </si>
   <si>
-    <t>&lt;= Frekuensi penggunaan gk ada &gt;:(</t>
-  </si>
-  <si>
-    <t>19. Manakah channel/ layanan yang lebih Anda sukai ketika Anda akan menggunakan fitur-fitur layanan perbankan berikut? [Cek Saldo ]</t>
-  </si>
-  <si>
     <t>[Cek Saldo]</t>
   </si>
   <si>
@@ -444,9 +439,6 @@
     <t>lokasi_qr_6</t>
   </si>
   <si>
-    <t>lokasi_qr_7</t>
-  </si>
-  <si>
     <t>Cafe/ restaurant</t>
   </si>
   <si>
@@ -781,13 +773,283 @@
   </si>
   <si>
     <t>ecommerce_pilihan_12</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Analisis</t>
+  </si>
+  <si>
+    <t>Visualisasi Histogram</t>
+  </si>
+  <si>
+    <t>Visualisasi Demographic</t>
+  </si>
+  <si>
+    <t>19. Manakah channel/ layanan yang lebih Anda sukai ketika Anda akan menggunakan fitur-fitur layanan perbankan berikut?</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>Ganti nama-nama kolom yang kepanjangan</t>
+  </si>
+  <si>
+    <t>Ganti value NaN di pilihan jadi True/False</t>
+  </si>
+  <si>
+    <t>Ganti Nama</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>usia</t>
+  </si>
+  <si>
+    <t>pendidikan</t>
+  </si>
+  <si>
+    <t>pekerjaan</t>
+  </si>
+  <si>
+    <t>penghasilan</t>
+  </si>
+  <si>
+    <t>domisili</t>
+  </si>
+  <si>
+    <t>durasi_internet</t>
+  </si>
+  <si>
+    <t>online_meningkat</t>
+  </si>
+  <si>
+    <t>freq_atm</t>
+  </si>
+  <si>
+    <t>freq_internetBanking</t>
+  </si>
+  <si>
+    <t>freq_mobileBanking</t>
+  </si>
+  <si>
+    <t>freq_smsBanking</t>
+  </si>
+  <si>
+    <t>freq_cabang</t>
+  </si>
+  <si>
+    <t>fitur_cekSaldo</t>
+  </si>
+  <si>
+    <t>fitur_mutasi</t>
+  </si>
+  <si>
+    <t>fitur_transfer1</t>
+  </si>
+  <si>
+    <t>fitur_transfer2</t>
+  </si>
+  <si>
+    <t>fitur_pulsa</t>
+  </si>
+  <si>
+    <t>fitur_tagihan</t>
+  </si>
+  <si>
+    <t>keluhan_emoney1</t>
+  </si>
+  <si>
+    <t>keluhan_emoney2</t>
+  </si>
+  <si>
+    <t>keluhan_emoney3</t>
+  </si>
+  <si>
+    <t>keluhan_emoney4</t>
+  </si>
+  <si>
+    <t>nominal_topup</t>
+  </si>
+  <si>
+    <t>freq_topup</t>
+  </si>
+  <si>
+    <t>Pilihan</t>
+  </si>
+  <si>
+    <t>belanja_online_1</t>
+  </si>
+  <si>
+    <t>belanja_online_2</t>
+  </si>
+  <si>
+    <t>belanja_online_3</t>
+  </si>
+  <si>
+    <t>belanja_online_4</t>
+  </si>
+  <si>
+    <t>belanja_online_5</t>
+  </si>
+  <si>
+    <t>belanja_online_6</t>
+  </si>
+  <si>
+    <t>belanja_online_7</t>
+  </si>
+  <si>
+    <t>belanja_online_8</t>
+  </si>
+  <si>
+    <t>belanja_online_9</t>
+  </si>
+  <si>
+    <t>belanja_online_10</t>
+  </si>
+  <si>
+    <t>cenderung_fashion</t>
+  </si>
+  <si>
+    <t>cenderung_groceries</t>
+  </si>
+  <si>
+    <t>cenderung_hp</t>
+  </si>
+  <si>
+    <t>cenderung_laptop</t>
+  </si>
+  <si>
+    <t>cenderung_hobi</t>
+  </si>
+  <si>
+    <t>cenderung_pulsa</t>
+  </si>
+  <si>
+    <t>cenderung_makanan</t>
+  </si>
+  <si>
+    <t>cendurung_pesawat</t>
+  </si>
+  <si>
+    <t>cenderung_bioskop</t>
+  </si>
+  <si>
+    <t>ecommerce_1</t>
+  </si>
+  <si>
+    <t>ecommerce_2</t>
+  </si>
+  <si>
+    <t>ecommerce_3</t>
+  </si>
+  <si>
+    <t>ecommerce_4</t>
+  </si>
+  <si>
+    <t>ecommerce_5</t>
+  </si>
+  <si>
+    <t>ecommerce_6</t>
+  </si>
+  <si>
+    <t>ecommerce_7</t>
+  </si>
+  <si>
+    <t>ecommerce_8</t>
+  </si>
+  <si>
+    <t>ecommerce_9</t>
+  </si>
+  <si>
+    <t>ecommerce_10</t>
+  </si>
+  <si>
+    <t>ecommerce_11</t>
+  </si>
+  <si>
+    <t>ecommerce_12</t>
+  </si>
+  <si>
+    <t>alasan_offline_1</t>
+  </si>
+  <si>
+    <t>alasan_offline_2</t>
+  </si>
+  <si>
+    <t>alasan_offline_3</t>
+  </si>
+  <si>
+    <t>alasan_offline_4</t>
+  </si>
+  <si>
+    <t>alasan_offline_5</t>
+  </si>
+  <si>
+    <t>alasan_offline_6</t>
+  </si>
+  <si>
+    <t>alasan_offline_7</t>
+  </si>
+  <si>
+    <t>bayar_online_1</t>
+  </si>
+  <si>
+    <t>bayar_online_2</t>
+  </si>
+  <si>
+    <t>bayar_online_3</t>
+  </si>
+  <si>
+    <t>bayar_online_4</t>
+  </si>
+  <si>
+    <t>bayar_online_5</t>
+  </si>
+  <si>
+    <t>bayar_online_6</t>
+  </si>
+  <si>
+    <t>bayar_online_7</t>
+  </si>
+  <si>
+    <t>bayar_online_8</t>
+  </si>
+  <si>
+    <t>keluhan_online_1</t>
+  </si>
+  <si>
+    <t>keluhan_online_2</t>
+  </si>
+  <si>
+    <t>keluhan_online_3</t>
+  </si>
+  <si>
+    <t>keluhan_online_4</t>
+  </si>
+  <si>
+    <t>keluhan_online_5</t>
+  </si>
+  <si>
+    <t>keluhan_online_6</t>
+  </si>
+  <si>
+    <t>Visualisasi Frekuensi</t>
+  </si>
+  <si>
+    <t>Aktivitas Online Meningkat 3 bulan</t>
+  </si>
+  <si>
+    <t>freq_belanja_6bln</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,16 +1068,48 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -825,16 +1119,247 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,15 +1367,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,1122 +1684,1980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D175"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="4" max="4" width="77" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="12"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="12"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="20"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="12"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="12"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="20"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="12"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D93" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D94" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>121</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="D95" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="12"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="20"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C94" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="C97" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C95" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
+      <c r="C98" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="17"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+      <c r="D100" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E100" s="17"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
+      <c r="D101" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E101" s="17"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
+      <c r="D102" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="B104" s="21" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="C104" s="14"/>
+      <c r="D104" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="23"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="C106" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
+      <c r="D106" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+      <c r="D107" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D108" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
+      <c r="D109" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+      <c r="D110" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
+      <c r="D111" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
+      <c r="D112" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E112" s="17"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
+      <c r="D113" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E113" s="17"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
+      <c r="D114" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C115" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+      <c r="D115" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="12"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="20"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C114" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C115" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+      <c r="C120" s="8"/>
+      <c r="D120" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+      <c r="C121" s="8"/>
+      <c r="D121" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E121" s="17"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+      <c r="C122" s="8"/>
+      <c r="D122" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122" s="17"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E123" s="17"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="3" t="s">
+      <c r="C124" s="8"/>
+      <c r="D124" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124" s="17"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="C125" s="8"/>
+      <c r="D125" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+      <c r="C126" s="8"/>
+      <c r="D126" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="12"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="20"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="13" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="C128" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="C129" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+      <c r="C130" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C131" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+      <c r="D131" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C132" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="D132" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E132" s="17"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C133" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+      <c r="D133" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133" s="17"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="D134" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E134" s="17"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C135" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>182</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D135" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E135" s="17"/>
+    </row>
+    <row r="136" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="12"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="20"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="13" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>183</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="C137" s="14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>184</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="D137" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E137" s="16"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="D138" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D139" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E139" s="17"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+      <c r="D140" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E140" s="17"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="D141" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E141" s="17"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C142" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="D142" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E142" s="17"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C143" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="D143" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E143" s="17"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C144" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="D144" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E144" s="17"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C145" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+      <c r="D145" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E145" s="17"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C146" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="D146" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C147" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="D147" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E147" s="17"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E148" s="17"/>
+    </row>
+    <row r="149" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="12"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="20"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="21" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>249</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="C150" s="14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>250</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="D150" s="15"/>
+      <c r="E150" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="12"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="20"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="13" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="C152" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E152" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C149" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C151" t="s">
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+      <c r="D153" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E153" s="17"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E154" s="17"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D155" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E155" s="17"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>235</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="D156" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E156" s="17"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>236</v>
-      </c>
-      <c r="C155" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+      <c r="D157" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E157" s="17"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C158" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>238</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="D158" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E158" s="17"/>
+    </row>
+    <row r="159" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="12"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="20"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C160" s="14" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>239</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D160" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="11" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>240</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="C161" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+      <c r="D161" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E161" s="17"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E162" s="17"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C161" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>215</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="D163" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C164" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>215</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D164" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E164" s="17"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>215</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D165" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E165" s="17"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C166" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>215</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="D166" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E166" s="17"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C167" s="8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>215</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="D167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E167" s="17"/>
+    </row>
+    <row r="168" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="12"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="20"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>215</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D169" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C170" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>215</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="D170" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C171" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+      <c r="D171" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C172" s="8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+      <c r="D172" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C173" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+      <c r="D173" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C174" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>232</v>
-      </c>
-      <c r="C173" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>233</v>
-      </c>
-      <c r="C174" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>234</v>
-      </c>
-      <c r="C175" t="s">
-        <v>228</v>
-      </c>
+      <c r="D174" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E174" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1414F02-A90E-4087-A8AA-B46121D20430}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldw\Documents\gswt\Project\tubes-probstat-2023\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5298F2F-EBA9-43F3-8841-3D050E685F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2477460D-0F8D-43E4-B524-366F034393C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1686,17 +1686,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" customWidth="1"/>
     <col min="4" max="4" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>249</v>
       </c>
@@ -1710,13 +1708,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1724,7 @@
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1734,7 @@
       </c>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1746,7 +1744,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1754,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1764,7 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1774,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1784,7 @@
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1794,7 @@
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>337</v>
       </c>
@@ -1804,7 +1802,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1816,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +1830,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1844,7 +1842,7 @@
       </c>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1856,7 +1854,7 @@
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1868,7 +1866,7 @@
       </c>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1880,13 +1878,13 @@
       </c>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +1912,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +1924,7 @@
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
@@ -1938,7 +1936,7 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
@@ -1950,7 +1948,7 @@
       </c>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +1960,7 @@
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
@@ -1974,13 +1972,13 @@
       </c>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
@@ -1990,7 +1988,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>35</v>
       </c>
@@ -2000,7 +1998,7 @@
       </c>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>37</v>
       </c>
@@ -2010,7 +2008,7 @@
       </c>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>38</v>
       </c>
@@ -2020,7 +2018,7 @@
       </c>
       <c r="E30" s="17"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
@@ -2030,7 +2028,7 @@
       </c>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>40</v>
       </c>
@@ -2040,13 +2038,13 @@
       </c>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>253</v>
       </c>
@@ -2056,7 +2054,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>36</v>
       </c>
@@ -2066,7 +2064,7 @@
       </c>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>41</v>
       </c>
@@ -2076,7 +2074,7 @@
       </c>
       <c r="E36" s="17"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>42</v>
       </c>
@@ -2086,7 +2084,7 @@
       </c>
       <c r="E37" s="17"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
         <v>43</v>
       </c>
@@ -2096,7 +2094,7 @@
       </c>
       <c r="E38" s="17"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>44</v>
       </c>
@@ -2106,7 +2104,7 @@
       </c>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>45</v>
       </c>
@@ -2116,13 +2114,13 @@
       </c>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
         <v>46</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>47</v>
       </c>
@@ -2148,7 +2146,7 @@
       </c>
       <c r="E43" s="17"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>48</v>
       </c>
@@ -2160,7 +2158,7 @@
       </c>
       <c r="E44" s="17"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
@@ -2172,13 +2170,13 @@
       </c>
       <c r="E45" s="17"/>
     </row>
-    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="12"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
         <v>54</v>
       </c>
@@ -2192,7 +2190,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
         <v>66</v>
       </c>
@@ -2204,7 +2202,7 @@
       </c>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
         <v>67</v>
       </c>
@@ -2216,7 +2214,7 @@
       </c>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
         <v>68</v>
       </c>
@@ -2228,7 +2226,7 @@
       </c>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>69</v>
       </c>
@@ -2240,7 +2238,7 @@
       </c>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>70</v>
       </c>
@@ -2252,7 +2250,7 @@
       </c>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>71</v>
       </c>
@@ -2264,7 +2262,7 @@
       </c>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>72</v>
       </c>
@@ -2276,7 +2274,7 @@
       </c>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>73</v>
       </c>
@@ -2288,7 +2286,7 @@
       </c>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>74</v>
       </c>
@@ -2300,7 +2298,7 @@
       </c>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>75</v>
       </c>
@@ -2312,13 +2310,13 @@
       </c>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="12"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19"/>
       <c r="E58" s="20"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="13" t="s">
         <v>76</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
         <v>82</v>
       </c>
@@ -2344,7 +2342,7 @@
       </c>
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
         <v>83</v>
       </c>
@@ -2356,7 +2354,7 @@
       </c>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>84</v>
       </c>
@@ -2368,7 +2366,7 @@
       </c>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>85</v>
       </c>
@@ -2380,13 +2378,13 @@
       </c>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="12"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="20"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="13" t="s">
         <v>86</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>97</v>
       </c>
@@ -2412,7 +2410,7 @@
       </c>
       <c r="E66" s="17"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>98</v>
       </c>
@@ -2424,7 +2422,7 @@
       </c>
       <c r="E67" s="17"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>99</v>
       </c>
@@ -2436,7 +2434,7 @@
       </c>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>100</v>
       </c>
@@ -2448,7 +2446,7 @@
       </c>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
         <v>101</v>
       </c>
@@ -2460,7 +2458,7 @@
       </c>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="11" t="s">
         <v>102</v>
       </c>
@@ -2472,7 +2470,7 @@
       </c>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>103</v>
       </c>
@@ -2484,7 +2482,7 @@
       </c>
       <c r="E72" s="17"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>104</v>
       </c>
@@ -2496,7 +2494,7 @@
       </c>
       <c r="E73" s="17"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>105</v>
       </c>
@@ -2508,13 +2506,13 @@
       </c>
       <c r="E74" s="17"/>
     </row>
-    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="12"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="13" t="s">
         <v>106</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>111</v>
       </c>
@@ -2540,7 +2538,7 @@
       </c>
       <c r="E77" s="17"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>112</v>
       </c>
@@ -2552,7 +2550,7 @@
       </c>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>113</v>
       </c>
@@ -2564,7 +2562,7 @@
       </c>
       <c r="E79" s="17"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
         <v>114</v>
       </c>
@@ -2576,7 +2574,7 @@
       </c>
       <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>115</v>
       </c>
@@ -2588,7 +2586,7 @@
       </c>
       <c r="E81" s="17"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>116</v>
       </c>
@@ -2600,13 +2598,13 @@
       </c>
       <c r="E82" s="17"/>
     </row>
-    <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19"/>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="21" t="s">
         <v>110</v>
       </c>
@@ -2618,7 +2616,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>117</v>
       </c>
@@ -2630,13 +2628,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="12"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19"/>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="11" t="s">
         <v>119</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>118</v>
       </c>
@@ -2662,7 +2660,7 @@
       </c>
       <c r="E88" s="17"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>124</v>
       </c>
@@ -2674,7 +2672,7 @@
       </c>
       <c r="E89" s="17"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
         <v>125</v>
       </c>
@@ -2686,13 +2684,13 @@
       </c>
       <c r="E90" s="17"/>
     </row>
-    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="13" t="s">
         <v>128</v>
       </c>
@@ -2706,7 +2704,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
         <v>127</v>
       </c>
@@ -2718,7 +2716,7 @@
       </c>
       <c r="E93" s="17"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
         <v>129</v>
       </c>
@@ -2730,7 +2728,7 @@
       </c>
       <c r="E94" s="17"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="11" t="s">
         <v>130</v>
       </c>
@@ -2742,13 +2740,13 @@
       </c>
       <c r="E95" s="17"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="12"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19"/>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B97" s="21" t="s">
         <v>131</v>
       </c>
@@ -2762,7 +2760,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>132</v>
       </c>
@@ -2774,7 +2772,7 @@
       </c>
       <c r="E98" s="17"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>133</v>
       </c>
@@ -2786,7 +2784,7 @@
       </c>
       <c r="E99" s="17"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>134</v>
       </c>
@@ -2798,7 +2796,7 @@
       </c>
       <c r="E100" s="17"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>135</v>
       </c>
@@ -2810,7 +2808,7 @@
       </c>
       <c r="E101" s="17"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>136</v>
       </c>
@@ -2822,13 +2820,13 @@
       </c>
       <c r="E102" s="17"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="4"/>
       <c r="C103" s="8"/>
       <c r="D103" s="1"/>
       <c r="E103" s="17"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="22"/>
       <c r="B104" s="21" t="s">
         <v>143</v>
@@ -2841,14 +2839,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="23"/>
       <c r="B105" s="12"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19"/>
       <c r="E105" s="20"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B106" s="21" t="s">
         <v>144</v>
       </c>
@@ -2862,7 +2860,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>155</v>
       </c>
@@ -2874,7 +2872,7 @@
       </c>
       <c r="E107" s="17"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>156</v>
       </c>
@@ -2886,7 +2884,7 @@
       </c>
       <c r="E108" s="17"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>157</v>
       </c>
@@ -2898,7 +2896,7 @@
       </c>
       <c r="E109" s="17"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>158</v>
       </c>
@@ -2910,7 +2908,7 @@
       </c>
       <c r="E110" s="17"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
         <v>159</v>
       </c>
@@ -2922,7 +2920,7 @@
       </c>
       <c r="E111" s="17"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
         <v>160</v>
       </c>
@@ -2934,7 +2932,7 @@
       </c>
       <c r="E112" s="17"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>161</v>
       </c>
@@ -2946,7 +2944,7 @@
       </c>
       <c r="E113" s="17"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>162</v>
       </c>
@@ -2958,7 +2956,7 @@
       </c>
       <c r="E114" s="17"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
         <v>163</v>
       </c>
@@ -2970,13 +2968,13 @@
       </c>
       <c r="E115" s="17"/>
     </row>
-    <row r="116" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="12"/>
       <c r="C116" s="18"/>
       <c r="D116" s="19"/>
       <c r="E116" s="20"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="21" t="s">
         <v>164</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="11" t="s">
         <v>165</v>
       </c>
@@ -2996,7 +2994,7 @@
       </c>
       <c r="E118" s="17"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="11" t="s">
         <v>166</v>
       </c>
@@ -3006,7 +3004,7 @@
       </c>
       <c r="E119" s="17"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="11" t="s">
         <v>167</v>
       </c>
@@ -3016,7 +3014,7 @@
       </c>
       <c r="E120" s="17"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="11" t="s">
         <v>168</v>
       </c>
@@ -3026,7 +3024,7 @@
       </c>
       <c r="E121" s="17"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
         <v>169</v>
       </c>
@@ -3036,7 +3034,7 @@
       </c>
       <c r="E122" s="17"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="11" t="s">
         <v>170</v>
       </c>
@@ -3046,7 +3044,7 @@
       </c>
       <c r="E123" s="17"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="11" t="s">
         <v>171</v>
       </c>
@@ -3056,7 +3054,7 @@
       </c>
       <c r="E124" s="17"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="11" t="s">
         <v>172</v>
       </c>
@@ -3066,7 +3064,7 @@
       </c>
       <c r="E125" s="17"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="11" t="s">
         <v>173</v>
       </c>
@@ -3076,13 +3074,13 @@
       </c>
       <c r="E126" s="17"/>
     </row>
-    <row r="127" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B127" s="12"/>
       <c r="C127" s="18"/>
       <c r="D127" s="19"/>
       <c r="E127" s="20"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="13" t="s">
         <v>174</v>
       </c>
@@ -3096,7 +3094,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="11" t="s">
         <v>175</v>
       </c>
@@ -3108,7 +3106,7 @@
       </c>
       <c r="E129" s="17"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="11" t="s">
         <v>176</v>
       </c>
@@ -3120,7 +3118,7 @@
       </c>
       <c r="E130" s="17"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="11" t="s">
         <v>177</v>
       </c>
@@ -3132,7 +3130,7 @@
       </c>
       <c r="E131" s="17"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="11" t="s">
         <v>178</v>
       </c>
@@ -3144,7 +3142,7 @@
       </c>
       <c r="E132" s="17"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="11" t="s">
         <v>179</v>
       </c>
@@ -3156,7 +3154,7 @@
       </c>
       <c r="E133" s="17"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="11" t="s">
         <v>180</v>
       </c>
@@ -3168,7 +3166,7 @@
       </c>
       <c r="E134" s="17"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="11" t="s">
         <v>181</v>
       </c>
@@ -3180,13 +3178,13 @@
       </c>
       <c r="E135" s="17"/>
     </row>
-    <row r="136" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B136" s="12"/>
       <c r="C136" s="18"/>
       <c r="D136" s="19"/>
       <c r="E136" s="20"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="13" t="s">
         <v>190</v>
       </c>
@@ -3198,7 +3196,7 @@
       </c>
       <c r="E137" s="16"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="11" t="s">
         <v>238</v>
       </c>
@@ -3212,7 +3210,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="11" t="s">
         <v>239</v>
       </c>
@@ -3224,7 +3222,7 @@
       </c>
       <c r="E139" s="17"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="11" t="s">
         <v>240</v>
       </c>
@@ -3236,7 +3234,7 @@
       </c>
       <c r="E140" s="17"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" s="11" t="s">
         <v>241</v>
       </c>
@@ -3248,7 +3246,7 @@
       </c>
       <c r="E141" s="17"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="11" t="s">
         <v>242</v>
       </c>
@@ -3260,7 +3258,7 @@
       </c>
       <c r="E142" s="17"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="11" t="s">
         <v>243</v>
       </c>
@@ -3272,7 +3270,7 @@
       </c>
       <c r="E143" s="17"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="11" t="s">
         <v>244</v>
       </c>
@@ -3284,7 +3282,7 @@
       </c>
       <c r="E144" s="17"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="11" t="s">
         <v>245</v>
       </c>
@@ -3296,7 +3294,7 @@
       </c>
       <c r="E145" s="17"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" s="11" t="s">
         <v>246</v>
       </c>
@@ -3308,7 +3306,7 @@
       </c>
       <c r="E146" s="17"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="11" t="s">
         <v>247</v>
       </c>
@@ -3320,7 +3318,7 @@
       </c>
       <c r="E147" s="17"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="11" t="s">
         <v>248</v>
       </c>
@@ -3332,13 +3330,13 @@
       </c>
       <c r="E148" s="17"/>
     </row>
-    <row r="149" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B149" s="12"/>
       <c r="C149" s="18"/>
       <c r="D149" s="19"/>
       <c r="E149" s="20"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="21" t="s">
         <v>202</v>
       </c>
@@ -3350,13 +3348,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B151" s="12"/>
       <c r="C151" s="18"/>
       <c r="D151" s="19"/>
       <c r="E151" s="20"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" s="13" t="s">
         <v>204</v>
       </c>
@@ -3370,7 +3368,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" s="11" t="s">
         <v>232</v>
       </c>
@@ -3382,7 +3380,7 @@
       </c>
       <c r="E153" s="17"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" s="11" t="s">
         <v>233</v>
       </c>
@@ -3394,7 +3392,7 @@
       </c>
       <c r="E154" s="17"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="11" t="s">
         <v>234</v>
       </c>
@@ -3406,7 +3404,7 @@
       </c>
       <c r="E155" s="17"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="11" t="s">
         <v>235</v>
       </c>
@@ -3418,7 +3416,7 @@
       </c>
       <c r="E156" s="17"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="11" t="s">
         <v>236</v>
       </c>
@@ -3430,7 +3428,7 @@
       </c>
       <c r="E157" s="17"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="11" t="s">
         <v>237</v>
       </c>
@@ -3442,13 +3440,13 @@
       </c>
       <c r="E158" s="17"/>
     </row>
-    <row r="159" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B159" s="12"/>
       <c r="C159" s="18"/>
       <c r="D159" s="19"/>
       <c r="E159" s="20"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="13" t="s">
         <v>212</v>
       </c>
@@ -3462,7 +3460,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" s="11" t="s">
         <v>212</v>
       </c>
@@ -3474,7 +3472,7 @@
       </c>
       <c r="E161" s="17"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="11" t="s">
         <v>212</v>
       </c>
@@ -3486,7 +3484,7 @@
       </c>
       <c r="E162" s="17"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="11" t="s">
         <v>212</v>
       </c>
@@ -3498,7 +3496,7 @@
       </c>
       <c r="E163" s="17"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="11" t="s">
         <v>212</v>
       </c>
@@ -3510,7 +3508,7 @@
       </c>
       <c r="E164" s="17"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="11" t="s">
         <v>212</v>
       </c>
@@ -3522,7 +3520,7 @@
       </c>
       <c r="E165" s="17"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="11" t="s">
         <v>212</v>
       </c>
@@ -3534,7 +3532,7 @@
       </c>
       <c r="E166" s="17"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="11" t="s">
         <v>212</v>
       </c>
@@ -3546,13 +3544,13 @@
       </c>
       <c r="E167" s="17"/>
     </row>
-    <row r="168" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="12"/>
       <c r="C168" s="18"/>
       <c r="D168" s="19"/>
       <c r="E168" s="20"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="11" t="s">
         <v>226</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="11" t="s">
         <v>227</v>
       </c>
@@ -3578,7 +3576,7 @@
       </c>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="11" t="s">
         <v>228</v>
       </c>
@@ -3590,7 +3588,7 @@
       </c>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="11" t="s">
         <v>229</v>
       </c>
@@ -3602,7 +3600,7 @@
       </c>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" s="11" t="s">
         <v>230</v>
       </c>
@@ -3614,7 +3612,7 @@
       </c>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="12" t="s">
         <v>231</v>
       </c>
@@ -3636,23 +3634,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1414F02-A90E-4087-A8AA-B46121D20430}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>256</v>
       </c>
